--- a/src/main/resources/english/verb/ingles.xlsx
+++ b/src/main/resources/english/verb/ingles.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="280" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Verb" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,2947 +15,2952 @@
     <sheet name="Questions" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="979">
   <si>
-    <t>stand</t>
-  </si>
-  <si>
-    <t>stood</t>
-  </si>
-  <si>
-    <t>wake</t>
-  </si>
-  <si>
-    <t>woke</t>
-  </si>
-  <si>
-    <t>be</t>
-  </si>
-  <si>
-    <t>was / were</t>
-  </si>
-  <si>
-    <t>been</t>
-  </si>
-  <si>
-    <t>beat</t>
-  </si>
-  <si>
-    <t>beaten</t>
-  </si>
-  <si>
-    <t>become</t>
-  </si>
-  <si>
-    <t>became</t>
-  </si>
-  <si>
-    <t>happen</t>
-  </si>
-  <si>
-    <t>happened</t>
-  </si>
-  <si>
-    <t>procreate</t>
-  </si>
-  <si>
-    <t>procreated</t>
-  </si>
-  <si>
-    <t>begin</t>
-  </si>
-  <si>
-    <t>began</t>
-  </si>
-  <si>
-    <t>begun</t>
-  </si>
-  <si>
-    <t>notice</t>
-  </si>
-  <si>
-    <t>noticed</t>
-  </si>
-  <si>
-    <t>bend</t>
-  </si>
-  <si>
-    <t>bent</t>
-  </si>
-  <si>
-    <t>grieve</t>
-  </si>
-  <si>
-    <t>grieved</t>
-  </si>
-  <si>
-    <t>bet</t>
-  </si>
-  <si>
-    <t>bid</t>
-  </si>
-  <si>
-    <t>bade</t>
-  </si>
-  <si>
-    <t>bind</t>
-  </si>
-  <si>
-    <t>bound</t>
-  </si>
-  <si>
-    <t>bite</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>bleed</t>
-  </si>
-  <si>
-    <t>bled</t>
-  </si>
-  <si>
-    <t>blow</t>
-  </si>
-  <si>
-    <t>blew</t>
-  </si>
-  <si>
-    <t>blown</t>
-  </si>
-  <si>
-    <t>break</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>breed</t>
-  </si>
-  <si>
-    <t>bred</t>
-  </si>
-  <si>
-    <t>bring</t>
-  </si>
-  <si>
-    <t>brought</t>
-  </si>
-  <si>
-    <t>can</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>able to</t>
-  </si>
-  <si>
-    <t>catch</t>
-  </si>
-  <si>
-    <t>caught</t>
-  </si>
-  <si>
-    <t>chide</t>
-  </si>
-  <si>
-    <t>chid</t>
-  </si>
-  <si>
-    <t>chidden</t>
-  </si>
-  <si>
-    <t>choose</t>
-  </si>
-  <si>
-    <t>chose</t>
-  </si>
-  <si>
-    <t>chosen</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>cling</t>
-  </si>
-  <si>
-    <t>clung</t>
-  </si>
-  <si>
-    <t>clothe</t>
-  </si>
-  <si>
-    <t>clothed</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>came</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>creep</t>
-  </si>
-  <si>
-    <t>crept</t>
-  </si>
-  <si>
-    <t>sing</t>
-  </si>
-  <si>
-    <t>sang</t>
-  </si>
-  <si>
-    <t>sung</t>
-  </si>
-  <si>
-    <t>dare</t>
-  </si>
-  <si>
-    <t>dared</t>
-  </si>
-  <si>
-    <t>durst</t>
-  </si>
-  <si>
-    <t>deal</t>
-  </si>
-  <si>
-    <t>dealt</t>
-  </si>
-  <si>
-    <t>dig</t>
-  </si>
-  <si>
-    <t>dug</t>
-  </si>
-  <si>
-    <t>do</t>
-  </si>
-  <si>
-    <t>did</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>draw</t>
-  </si>
-  <si>
-    <t>drew</t>
-  </si>
-  <si>
-    <t>drawn</t>
-  </si>
-  <si>
-    <t>dream</t>
-  </si>
-  <si>
-    <t>dreamt</t>
-  </si>
-  <si>
-    <t>drink</t>
-  </si>
-  <si>
-    <t>drank</t>
-  </si>
-  <si>
-    <t>drunk</t>
-  </si>
-  <si>
-    <t>drive</t>
-  </si>
-  <si>
-    <t>drove</t>
-  </si>
-  <si>
-    <t>driven</t>
-  </si>
-  <si>
-    <t>eat</t>
-  </si>
-  <si>
-    <t>ate</t>
-  </si>
-  <si>
-    <t>eaten</t>
-  </si>
-  <si>
-    <t>fall</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>fallen</t>
-  </si>
-  <si>
-    <t>feed</t>
-  </si>
-  <si>
-    <t>fed</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>fought</t>
-  </si>
-  <si>
-    <t>find</t>
-  </si>
-  <si>
-    <t>found</t>
-  </si>
-  <si>
-    <t>fly</t>
-  </si>
-  <si>
-    <t>flow</t>
-  </si>
-  <si>
-    <t>flown</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>stopped</t>
-  </si>
-  <si>
-    <t>forbid</t>
-  </si>
-  <si>
-    <t>forbade</t>
-  </si>
-  <si>
-    <t>forbidden</t>
-  </si>
-  <si>
-    <t>forget</t>
-  </si>
-  <si>
-    <t>forgot</t>
-  </si>
-  <si>
-    <t>forgotten</t>
-  </si>
-  <si>
-    <t>forgive</t>
-  </si>
-  <si>
-    <t>forgave</t>
-  </si>
-  <si>
-    <t>forgiven</t>
-  </si>
-  <si>
-    <t>leave</t>
-  </si>
-  <si>
-    <t>left</t>
-  </si>
-  <si>
-    <t>freeze</t>
-  </si>
-  <si>
-    <t>froze</t>
-  </si>
-  <si>
-    <t>frozen</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>gotten</t>
-  </si>
-  <si>
-    <t>fasten</t>
-  </si>
-  <si>
-    <t>fastened</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>gave</t>
-  </si>
-  <si>
-    <t>given</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>went</t>
-  </si>
-  <si>
-    <t>been/gone</t>
-  </si>
-  <si>
-    <t>grind</t>
-  </si>
-  <si>
-    <t>ground</t>
-  </si>
-  <si>
-    <t>grow</t>
-  </si>
-  <si>
-    <t>grew</t>
-  </si>
-  <si>
-    <t>grown</t>
-  </si>
-  <si>
-    <t>hang</t>
-  </si>
-  <si>
-    <t>hanged</t>
-  </si>
-  <si>
-    <t>have</t>
-  </si>
-  <si>
-    <t>had</t>
-  </si>
-  <si>
-    <t>has</t>
-  </si>
-  <si>
-    <t>hear</t>
-  </si>
-  <si>
-    <t>heard</t>
-  </si>
-  <si>
-    <t>hide</t>
-  </si>
-  <si>
-    <t>hid</t>
-  </si>
-  <si>
-    <t>hidden</t>
-  </si>
-  <si>
-    <t>hit</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>held</t>
-  </si>
-  <si>
-    <t>hurt</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>kept</t>
-  </si>
-  <si>
-    <t>kneel</t>
-  </si>
-  <si>
-    <t>knelt</t>
-  </si>
-  <si>
-    <t>knit</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>knew</t>
-  </si>
-  <si>
-    <t>known</t>
-  </si>
-  <si>
-    <t>lay</t>
-  </si>
-  <si>
-    <t>laid</t>
-  </si>
-  <si>
-    <t>lead</t>
-  </si>
-  <si>
-    <t>led</t>
-  </si>
-  <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>learned</t>
-  </si>
-  <si>
-    <t>learnt</t>
-  </si>
-  <si>
-    <t>lend</t>
-  </si>
-  <si>
-    <t>lent</t>
-  </si>
-  <si>
-    <t>let</t>
-  </si>
-  <si>
-    <t>lie</t>
-  </si>
-  <si>
-    <t>lain</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>lit</t>
-  </si>
-  <si>
-    <t>lose</t>
-  </si>
-  <si>
-    <t>lost</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>meant</t>
-  </si>
-  <si>
-    <t>meet</t>
-  </si>
-  <si>
-    <t>met</t>
-  </si>
-  <si>
-    <t>mow</t>
-  </si>
-  <si>
-    <t>mowed</t>
-  </si>
-  <si>
-    <t>mown</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>paid</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>rent</t>
-  </si>
-  <si>
-    <t>rented</t>
-  </si>
-  <si>
-    <t>rib</t>
-  </si>
-  <si>
-    <t>ride</t>
-  </si>
-  <si>
-    <t>rode</t>
-  </si>
-  <si>
-    <t>ridden</t>
-  </si>
-  <si>
-    <t>ring</t>
-  </si>
-  <si>
-    <t>rang</t>
-  </si>
-  <si>
-    <t>rung</t>
-  </si>
-  <si>
-    <t>rise</t>
-  </si>
-  <si>
-    <t>rose</t>
-  </si>
-  <si>
-    <t>risen</t>
-  </si>
-  <si>
-    <t>run</t>
-  </si>
-  <si>
-    <t>ran</t>
-  </si>
-  <si>
-    <t>saw</t>
-  </si>
-  <si>
-    <t>sawed</t>
-  </si>
-  <si>
-    <t>sawn</t>
-  </si>
-  <si>
-    <t>say</t>
-  </si>
-  <si>
-    <t>said</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>seem</t>
-  </si>
-  <si>
-    <t>seek</t>
-  </si>
-  <si>
-    <t>sought</t>
-  </si>
-  <si>
-    <t>sell</t>
-  </si>
-  <si>
-    <t>sold</t>
-  </si>
-  <si>
-    <t>send</t>
-  </si>
-  <si>
-    <t>sent</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>sew</t>
-  </si>
-  <si>
-    <t>sewed</t>
-  </si>
-  <si>
-    <t>shake</t>
-  </si>
-  <si>
-    <t>shook</t>
-  </si>
-  <si>
-    <t>shaken</t>
-  </si>
-  <si>
-    <t>shear</t>
-  </si>
-  <si>
-    <t>sheared</t>
-  </si>
-  <si>
-    <t>shorn</t>
-  </si>
-  <si>
-    <t>shed</t>
-  </si>
-  <si>
-    <t>shine</t>
-  </si>
-  <si>
-    <t>shone</t>
-  </si>
-  <si>
-    <t>shoe</t>
-  </si>
-  <si>
-    <t>shoed</t>
-  </si>
-  <si>
-    <t>shoot</t>
-  </si>
-  <si>
-    <t>shot</t>
-  </si>
-  <si>
-    <t>show</t>
-  </si>
-  <si>
-    <t>showed</t>
-  </si>
-  <si>
-    <t>shown</t>
-  </si>
-  <si>
-    <t>shrink</t>
-  </si>
-  <si>
-    <t>shrank</t>
-  </si>
-  <si>
-    <t>shrunk</t>
-  </si>
-  <si>
-    <t>account for</t>
-  </si>
-  <si>
-    <t>dar cuenta, explicar, justificar, tener en cuenta,  acabar con</t>
-  </si>
-  <si>
-    <t>acuse of</t>
-  </si>
-  <si>
-    <t>acusado de</t>
-  </si>
-  <si>
-    <t>act on</t>
-  </si>
-  <si>
-    <t>actuar, tomar action</t>
-  </si>
-  <si>
-    <t>add on</t>
-  </si>
-  <si>
-    <t>añadir</t>
-  </si>
-  <si>
-    <t>add up to</t>
-  </si>
-  <si>
-    <t>sumar, resultado</t>
-  </si>
-  <si>
-    <t>aim at</t>
-  </si>
-  <si>
-    <t>apuntar, afectar</t>
-  </si>
-  <si>
-    <t>answer to</t>
-  </si>
-  <si>
-    <t>responder,  dar cuentas, respuesta</t>
-  </si>
-  <si>
-    <t>approve of</t>
-  </si>
-  <si>
-    <t>aprovar, gustar, admitir, de acuerdo</t>
-  </si>
-  <si>
-    <t>ask for</t>
-  </si>
-  <si>
-    <t>pedir, solicitar, preguntar</t>
-  </si>
-  <si>
-    <t>ask in</t>
-  </si>
-  <si>
-    <t>preguntar para que venga donde estamos</t>
-  </si>
-  <si>
-    <t>ask out</t>
-  </si>
-  <si>
-    <t>invitar a alguin a salir</t>
-  </si>
-  <si>
-    <t>back away</t>
-  </si>
-  <si>
-    <t>retroceder</t>
-  </si>
-  <si>
-    <t>back down</t>
-  </si>
-  <si>
-    <t>echarse atrás, dar marcha atrás (arrepentirse de hacer algo)</t>
-  </si>
-  <si>
-    <t>back out</t>
-  </si>
-  <si>
-    <t>echarse atrás, dar machar atrás, retirarse de algun contrato o acuerdo.</t>
-  </si>
-  <si>
-    <t>back up</t>
-  </si>
-  <si>
-    <t>respaltas, hacer copia de seguridad, confirmar,  reversa, retroceder</t>
-  </si>
-  <si>
-    <t>bail out</t>
-  </si>
-  <si>
-    <t>saltar de alguna aeronave</t>
-  </si>
-  <si>
-    <t>barge in</t>
-  </si>
-  <si>
-    <t>interrumpir</t>
-  </si>
-  <si>
-    <t>batter down</t>
-  </si>
-  <si>
-    <t>derribar a golpes</t>
-  </si>
-  <si>
-    <t>be away</t>
-  </si>
-  <si>
-    <t>ir se algun lado</t>
-  </si>
-  <si>
-    <t>Dar cuentas de</t>
-  </si>
-  <si>
-    <t>enemy bombing accounted for several iconic buildings in the capital</t>
-  </si>
-  <si>
-    <t>Explicar</t>
-  </si>
-  <si>
-    <t>how do you account for thier behaviour?</t>
-  </si>
-  <si>
-    <t>how do you account for it?</t>
-  </si>
-  <si>
-    <t>i can't account for it</t>
-  </si>
-  <si>
-    <t>that account for it</t>
-  </si>
-  <si>
-    <t>the student had to account for the loss of the book</t>
-  </si>
-  <si>
-    <t>Justificar</t>
-  </si>
-  <si>
-    <t>the worker had to account for his absence</t>
-  </si>
-  <si>
-    <t>tener en cuenta</t>
-  </si>
-  <si>
-    <t>Did you account for the cost of materials in your estimate for the building work?</t>
-  </si>
-  <si>
-    <t>we must take this into account for two reasons</t>
-  </si>
-  <si>
-    <t>representar</t>
-  </si>
-  <si>
-    <t>my rent accounts for nearly half my wages</t>
-  </si>
-  <si>
-    <t>children account for 5 percent of the audience</t>
-  </si>
-  <si>
-    <t>acabar con</t>
-  </si>
-  <si>
-    <t>the flu epidemic of 1918 accounted for millions of lives</t>
-  </si>
-  <si>
-    <t>one bomb accounted for the power station</t>
-  </si>
-  <si>
-    <t>they accounted for three stags</t>
-  </si>
-  <si>
-    <t>the ship accounted for three enemy aircraft</t>
-  </si>
-  <si>
-    <t>accuse of</t>
-  </si>
-  <si>
-    <t>he was accused of stealing the money</t>
-  </si>
-  <si>
-    <t>take action as the result of (eg advice)</t>
-  </si>
-  <si>
-    <t>take action</t>
-  </si>
-  <si>
-    <t>we acted on your advice and took the early train</t>
-  </si>
-  <si>
-    <t>actuar</t>
-  </si>
-  <si>
-    <t>we must think on a european level, but act on a regional level</t>
-  </si>
-  <si>
-    <t>include in your calculations</t>
-  </si>
-  <si>
-    <t>don't forget to add on some money for expenses</t>
-  </si>
-  <si>
-    <t>the new software provides interesting add-on features</t>
-  </si>
-  <si>
-    <t>you have to add 15 dollars on for service</t>
-  </si>
-  <si>
-    <t>we added two rooms on</t>
-  </si>
-  <si>
-    <t>then, add another seven percent on the bill for salex tax</t>
-  </si>
-  <si>
-    <t>i have nothing to add on the matter</t>
-  </si>
-  <si>
-    <t>suma</t>
-  </si>
-  <si>
-    <t>it adds up to 22 dollars</t>
-  </si>
-  <si>
-    <t>resultado</t>
-  </si>
-  <si>
-    <t>what does this add up to?</t>
-  </si>
-  <si>
-    <t>the money owed added up to over two thousand pounds</t>
-  </si>
-  <si>
-    <t>try to affect or influence certain people</t>
-  </si>
-  <si>
-    <t>influencio</t>
-  </si>
-  <si>
-    <t>this advertisement is obviosly aimed at teenagers</t>
-  </si>
-  <si>
-    <t>apuntar</t>
-  </si>
-  <si>
-    <t>the archer aimed at the target and shot the arrow</t>
-  </si>
-  <si>
-    <t>dar cuentas</t>
-  </si>
-  <si>
-    <t>i answer to nobody</t>
-  </si>
-  <si>
-    <t>responde</t>
-  </si>
-  <si>
-    <t>the dog answers to the name of trosky</t>
-  </si>
-  <si>
-    <t>respuestas</t>
-  </si>
-  <si>
-    <t>check your answer to be sure it is correct</t>
-  </si>
-  <si>
-    <t>think something is good</t>
-  </si>
-  <si>
-    <t>aprobar</t>
-  </si>
-  <si>
-    <t>i don't approve of all this loud modern music</t>
-  </si>
-  <si>
-    <t>i don't say i approve of his behavior, simply that i can understand why he does it</t>
-  </si>
-  <si>
-    <t>my parents have never approved of my girlfriend</t>
-  </si>
-  <si>
-    <t>aprobar/gustar</t>
-  </si>
-  <si>
-    <t>she doesn't approve of them smoking</t>
-  </si>
-  <si>
-    <t>i dont approve of your friend</t>
-  </si>
-  <si>
-    <t>de acuerdo</t>
-  </si>
-  <si>
-    <t>not everyone approves of the festival</t>
-  </si>
-  <si>
-    <t>he doesn't approve of drinking</t>
-  </si>
-  <si>
-    <t>i don't approve of her going</t>
-  </si>
-  <si>
-    <t>make something likely on happen</t>
-  </si>
-  <si>
-    <t>pedir</t>
-  </si>
-  <si>
-    <t>i may ask you for some help if i can't do this alone</t>
-  </si>
-  <si>
-    <t>i always ask for permission to avoid being rude</t>
-  </si>
-  <si>
-    <t>we asked the expert for a comprehensive analysis</t>
-  </si>
-  <si>
-    <t>he wrote asking for help</t>
-  </si>
-  <si>
-    <t>solicitar</t>
-  </si>
-  <si>
-    <t>i called customer service and asked for information</t>
-  </si>
-  <si>
-    <t>i asked the company for additional information</t>
-  </si>
-  <si>
-    <t>preguntar</t>
-  </si>
-  <si>
-    <t>there's someone asking for you at reception</t>
-  </si>
-  <si>
-    <t>son, one of your friends is asking for youat the door</t>
-  </si>
-  <si>
-    <t>ask someone to come in</t>
-  </si>
-  <si>
-    <t>don't leave your friend on the doorstep, ask bim in</t>
-  </si>
-  <si>
-    <t>ask someone to go out with you</t>
-  </si>
-  <si>
-    <t>i asked carolay out but she said she had lots of homework to do</t>
-  </si>
-  <si>
-    <t>retrear move backwards</t>
-  </si>
-  <si>
-    <t>the bank staff backed away as the gunman came nearer</t>
-  </si>
-  <si>
-    <t>back away from</t>
-  </si>
-  <si>
-    <t>retrear from</t>
-  </si>
-  <si>
-    <t>the postman backed away from the angry dog</t>
-  </si>
-  <si>
-    <t>no long keep to your position in an argument</t>
-  </si>
-  <si>
-    <t>neither party wanted to back down so the argument continued</t>
-  </si>
-  <si>
-    <t>echarse atrás</t>
-  </si>
-  <si>
-    <t>the insurance company finally backed down and agreed to pay the customer's claim</t>
-  </si>
-  <si>
-    <t>dar marcha atrs</t>
-  </si>
-  <si>
-    <t>the government is refusing to back down on its proposals for labor union reform</t>
-  </si>
-  <si>
-    <t>we have to find a way of getting her to back down without losing face</t>
-  </si>
-  <si>
-    <t>not do as primised</t>
-  </si>
-  <si>
-    <t>the pianist had backed out so i've got to find another one</t>
-  </si>
-  <si>
-    <t>he said he was goingto help make dinner, and then he backed out</t>
-  </si>
-  <si>
-    <t>volverse atrás</t>
-  </si>
-  <si>
-    <t>robert backed out of the fight when he learned who he'd be boxing</t>
-  </si>
-  <si>
-    <t>retirarse</t>
-  </si>
-  <si>
-    <t>i don't feel safe in this neighborhood anymore and i may back out of my lease agreement</t>
-  </si>
-  <si>
-    <t>back out of</t>
-  </si>
-  <si>
-    <t>with draw from (eg an agreement)</t>
-  </si>
-  <si>
-    <t>i'll back out of the agreement unless things improve</t>
-  </si>
-  <si>
-    <t>give someone help and support</t>
-  </si>
-  <si>
-    <t>my friends backed me up when i complained about the noise</t>
-  </si>
-  <si>
-    <t>apoyar</t>
-  </si>
-  <si>
-    <t>the officer called for more police to back her up</t>
-  </si>
-  <si>
-    <t>confirmar</t>
-  </si>
-  <si>
-    <t>this certified document backs up my claim to mr. Willian's estate</t>
-  </si>
-  <si>
-    <t>copia de trabajo</t>
-  </si>
-  <si>
-    <t>i always back up mu work in case something happens</t>
-  </si>
-  <si>
-    <t>echar en reversa</t>
-  </si>
-  <si>
-    <t>i had to back up the car because i entered a dead end alley</t>
-  </si>
-  <si>
-    <t>copia de seguridad</t>
-  </si>
-  <si>
-    <t>remenber to back up tje financia data</t>
-  </si>
-  <si>
-    <t>i backed up slowly</t>
-  </si>
-  <si>
-    <t>(of a pilot) jump out of an aeroplane in flight</t>
-  </si>
-  <si>
-    <t>the pilot managed to bail out just before the plane crashed</t>
-  </si>
-  <si>
-    <t>rush in rudely, interrupt</t>
-  </si>
-  <si>
-    <t>carlos  barge in just as the conversation was getting interesting</t>
-  </si>
-  <si>
-    <t>keep hitting something until it falls to the ground</t>
-  </si>
-  <si>
-    <t>the firemen had to batter down the door to get in</t>
-  </si>
-  <si>
-    <t>have gone somewhere else</t>
-  </si>
-  <si>
-    <t>our head of department's away on a business trip</t>
-  </si>
-  <si>
-    <t>i'll be away next week, so you are in charge</t>
-  </si>
-  <si>
-    <t>my son will be away at college until chirstmas vacation</t>
-  </si>
-  <si>
-    <t>be down</t>
-  </si>
-  <si>
-    <t>feel depressed</t>
-  </si>
-  <si>
-    <t>he's been down ever since his dog died</t>
-  </si>
-  <si>
-    <t>have falllen, decreased</t>
-  </si>
-  <si>
-    <t>unfortunately, profits are down by 20 per cent</t>
-  </si>
-  <si>
-    <t>have caught some kind of illness</t>
-  </si>
-  <si>
-    <t>barry can't come to the meeting, he's down with a virus</t>
-  </si>
-  <si>
-    <t>be in</t>
-  </si>
-  <si>
-    <t>arrive</t>
-  </si>
-  <si>
-    <t>competitio entries must be in by the end of the week</t>
-  </si>
-  <si>
-    <t>have come into fashion</t>
-  </si>
-  <si>
-    <t>that hairstyle is definitely in at the moment</t>
-  </si>
-  <si>
-    <t>be at home</t>
-  </si>
-  <si>
-    <t>she should be in from work soon</t>
-  </si>
-  <si>
-    <t>be high</t>
-  </si>
-  <si>
-    <t>when the tide is in, ther isn't much room on the beach</t>
-  </si>
-  <si>
-    <t>esta en</t>
-  </si>
-  <si>
-    <t>the novel should be in the fiction section of the library</t>
-  </si>
-  <si>
-    <t>quedar en</t>
-  </si>
-  <si>
-    <t>after you have a heart-to-hear with zach, all  your problems with him will be in the past</t>
-  </si>
-  <si>
-    <t>llegar</t>
-  </si>
-  <si>
-    <t>the doctor will be in tomorrow</t>
-  </si>
-  <si>
-    <t>all requests should be in writing and notarized</t>
-  </si>
-  <si>
-    <t>be in on</t>
-  </si>
-  <si>
-    <t>be involved in something</t>
-  </si>
-  <si>
-    <t>i don't know much about it as i wasn't in on the planning</t>
-  </si>
-  <si>
-    <t>be off</t>
-  </si>
-  <si>
-    <t>start a journey</t>
-  </si>
-  <si>
-    <t>when are you off? At six o'clock tomorrow evening</t>
-  </si>
-  <si>
-    <t>of food … have gone bad</t>
-  </si>
-  <si>
-    <t>smell this cream,  i think it's off</t>
-  </si>
-  <si>
-    <t>be on</t>
-  </si>
-  <si>
-    <t>be taking place</t>
-  </si>
-  <si>
-    <t>the play is on for another three nights</t>
-  </si>
-  <si>
-    <t>be working, have been switched on</t>
-  </si>
-  <si>
-    <t>there must be someone inside, the television is on</t>
-  </si>
-  <si>
-    <t>estar en</t>
-  </si>
-  <si>
-    <t>your money is on the table. Don't forget it</t>
-  </si>
-  <si>
-    <t>estar sobre</t>
-  </si>
-  <si>
-    <t>where is my jacket? I think it's on the chair in the other room</t>
-  </si>
-  <si>
-    <t>estar encima de</t>
-  </si>
-  <si>
-    <t>the biggest tree i have ever seen is on this mountain</t>
-  </si>
-  <si>
-    <t>estar encendido</t>
-  </si>
-  <si>
-    <t>why isn't the television working? Is it on?</t>
-  </si>
-  <si>
-    <t>this room is always dark, even when the light is on</t>
-  </si>
-  <si>
-    <t>be out</t>
-  </si>
-  <si>
-    <t>not be at home, have left a building temporarily</t>
-  </si>
-  <si>
-    <t>the boss is out at the moment but he'll be back soon</t>
-  </si>
-  <si>
-    <t>be out of</t>
-  </si>
-  <si>
-    <t>no longer have any left</t>
-  </si>
-  <si>
-    <t>i'm afraid we're out of sugar at the moment</t>
-  </si>
-  <si>
-    <t>be up</t>
-  </si>
-  <si>
-    <t>have risen</t>
-  </si>
-  <si>
-    <t>profits are up by fifty per cent</t>
-  </si>
-  <si>
-    <t>have got out of bed to start the day</t>
-  </si>
-  <si>
-    <t>gerry's so lazy it's eleven o'clock and she still isn't up yet</t>
-  </si>
-  <si>
-    <t>of time…have expired</t>
-  </si>
-  <si>
-    <t>time's up. Please stop writing</t>
-  </si>
-  <si>
-    <t>be up to</t>
-  </si>
-  <si>
-    <t>be doing. Usually something wrong</t>
-  </si>
-  <si>
-    <t>you're looking guilty. What have you been up to?</t>
-  </si>
-  <si>
-    <t>beat down</t>
-  </si>
-  <si>
-    <t>shine and be extremely hot</t>
-  </si>
-  <si>
-    <t>it was midday and the sun was beating down</t>
-  </si>
-  <si>
-    <t>conseguir una rebaja en</t>
-  </si>
-  <si>
-    <t>i beat him down to 50 dollar for the dress</t>
-  </si>
-  <si>
-    <t>beat up</t>
-  </si>
-  <si>
-    <t>hit or kick someone and hurt them badly</t>
-  </si>
-  <si>
-    <t>the thieves beat the victim up and stole all his money</t>
-  </si>
-  <si>
-    <t>pegar</t>
-  </si>
-  <si>
-    <t>bruno told me he would beat me up if i didn't give him my lunch money</t>
-  </si>
-  <si>
-    <t>bed down</t>
-  </si>
-  <si>
-    <t>sleep somewhere unusual</t>
-  </si>
-  <si>
-    <t>we had to bed down in the stables for the night</t>
-  </si>
-  <si>
-    <t>belong to</t>
-  </si>
-  <si>
-    <t>be owned by</t>
-  </si>
-  <si>
-    <t>that yacht must belong to someone really rich</t>
-  </si>
-  <si>
-    <t>apertenecer a</t>
-  </si>
-  <si>
-    <t>these books belong to my father</t>
-  </si>
-  <si>
-    <t>ser de</t>
-  </si>
-  <si>
-    <t>this video belongs to the library</t>
-  </si>
-  <si>
-    <t>pertenece a</t>
-  </si>
-  <si>
-    <t>i belong to a local chapter of a global not-for-profit organization</t>
-  </si>
-  <si>
-    <t>ser miembre de</t>
-  </si>
-  <si>
-    <t>karo belongs to the local girl scouts group</t>
-  </si>
-  <si>
-    <t>this ribbon belongs to my pink dress</t>
-  </si>
-  <si>
-    <t>pertenecer a</t>
-  </si>
-  <si>
-    <t>this attachment belongs to the vacuum cleaner</t>
-  </si>
-  <si>
-    <t>the land belonged to my grandparents</t>
-  </si>
-  <si>
-    <t>the herd belongs to the farmer</t>
-  </si>
-  <si>
-    <t>bend down</t>
-  </si>
-  <si>
-    <t>move the top of the body downwards</t>
-  </si>
-  <si>
-    <t>he bent down and picked up a piece of paper</t>
-  </si>
-  <si>
-    <t>agacharse</t>
-  </si>
-  <si>
-    <t>diana bent down to take to take close-up of the beetle</t>
-  </si>
-  <si>
-    <t>inclinar</t>
-  </si>
-  <si>
-    <t>i bent my head down to get a closer look</t>
-  </si>
-  <si>
-    <t>black out</t>
-  </si>
-  <si>
-    <t>top the lights working</t>
-  </si>
-  <si>
-    <t>the power cut blaked out half the city</t>
-  </si>
-  <si>
-    <t>suprimir</t>
-  </si>
-  <si>
-    <t>the editor blacked out a few sentences that seemed superflous</t>
-  </si>
-  <si>
-    <t>borrar</t>
-  </si>
-  <si>
-    <t>the durector decided to black out a few parts of the script</t>
-  </si>
-  <si>
-    <t>dejar a orcuras</t>
-  </si>
-  <si>
-    <t>the windstorm blacked out half the city</t>
-  </si>
-  <si>
-    <t>apagar las luces</t>
-  </si>
-  <si>
-    <t>the first move will be to attack the power station in order to black out their base</t>
-  </si>
-  <si>
-    <t>desmayarse</t>
-  </si>
-  <si>
-    <t>i'm just glad i wasn't driving when i blacked out</t>
-  </si>
-  <si>
-    <t>perder el conocimiento</t>
-  </si>
-  <si>
-    <t>rodolfe hit his head and blacked out for a moment</t>
-  </si>
-  <si>
-    <t>suspender</t>
-  </si>
-  <si>
-    <t>industrial action has blacked out this evening's programs</t>
-  </si>
-  <si>
-    <t>blare out</t>
-  </si>
-  <si>
-    <t>of music .. .be very loud</t>
-  </si>
-  <si>
-    <t>the music blared out and gave me a terrible headache</t>
-  </si>
-  <si>
-    <t>blaze away</t>
-  </si>
-  <si>
-    <t>bun fiercely</t>
-  </si>
-  <si>
-    <t>the fire blazed away and soon warmed us up</t>
-  </si>
-  <si>
-    <t>shoot rapudly and continuously</t>
-  </si>
-  <si>
-    <t>the terrorists blazed away with their machin guns</t>
-  </si>
-  <si>
-    <t>blow down</t>
-  </si>
-  <si>
-    <t>of wind… cause to fall down</t>
-  </si>
-  <si>
-    <t>the trees were blown down by the fierce wind</t>
-  </si>
-  <si>
-    <t>derribar</t>
-  </si>
-  <si>
-    <t>the wind blew down the scarecrow in the garden</t>
-  </si>
-  <si>
-    <t>blow out</t>
-  </si>
-  <si>
-    <t>extinguish…eg a candle… by blowing</t>
-  </si>
-  <si>
-    <t>mother blew out the candle and the room went dark</t>
-  </si>
-  <si>
-    <t>reventarse</t>
-  </si>
-  <si>
-    <t>the front right tire blew out when i hit a nasty pothole</t>
-  </si>
-  <si>
-    <t>hacer explision</t>
-  </si>
-  <si>
-    <t>a gas well blew out, and then caught fire</t>
-  </si>
-  <si>
-    <t>apagarse</t>
-  </si>
-  <si>
-    <t>a gust of wind came through the window, and the candles on the cake blew out</t>
-  </si>
-  <si>
-    <t>apagar</t>
-  </si>
-  <si>
-    <t>lauren blew out the candles on the table and picked up the dishes</t>
-  </si>
-  <si>
-    <t>soplar</t>
-  </si>
-  <si>
-    <t>jhon blew out the candles on his bithday cake</t>
-  </si>
-  <si>
-    <t>romper</t>
-  </si>
-  <si>
-    <t>the wind blew out the glass backboard for the basketball hoop</t>
-  </si>
-  <si>
-    <t>my brave youg man, i will blow out your brains</t>
-  </si>
-  <si>
-    <t>dar una paliza a</t>
-  </si>
-  <si>
-    <t>the giants blew out the dodgers last week</t>
-  </si>
-  <si>
-    <t>exhalar</t>
-  </si>
-  <si>
-    <t>he took a drag from his cigarette, and the blew out the smoke</t>
-  </si>
-  <si>
-    <t>hinchar</t>
-  </si>
-  <si>
-    <t>alison blew out her cheeks and said, whatever</t>
-  </si>
-  <si>
-    <t>blow over</t>
-  </si>
-  <si>
-    <t>of a storm .. .pass</t>
-  </si>
-  <si>
-    <t>the stom finally blew over early this morning</t>
-  </si>
-  <si>
-    <t>caerse</t>
-  </si>
-  <si>
-    <t>the hole for the fence post needs to be nice and deep, or else it'll blow over</t>
-  </si>
-  <si>
-    <t>ser derribado</t>
-  </si>
-  <si>
-    <t>the soccer goal had blown over during the night</t>
-  </si>
-  <si>
-    <t>pasar</t>
-  </si>
-  <si>
-    <t>it's not even worth it  to try to shovel the snow until the blizzard's blown over</t>
-  </si>
-  <si>
-    <t>olvidarse</t>
-  </si>
-  <si>
-    <t>don't worry about derek, i know he seems mad now, but it all will have blown over by tomorrow</t>
-  </si>
-  <si>
-    <t>the wind blew over the mailbox, and the package got all wet</t>
-  </si>
-  <si>
-    <t>blow up</t>
-  </si>
-  <si>
-    <t>destry with an explosion</t>
-  </si>
-  <si>
-    <t>we'll need more explisives to blow up the bridge</t>
-  </si>
-  <si>
-    <t>hacer explotar</t>
-  </si>
-  <si>
-    <t>the domlition crew blew up the building</t>
-  </si>
-  <si>
-    <t>valor</t>
-  </si>
-  <si>
-    <t>the army blew up every bridge in the area during the war</t>
-  </si>
-  <si>
-    <t>inflar</t>
-  </si>
-  <si>
-    <t>do you know how to blow up a basketball with a pump?</t>
-  </si>
-  <si>
-    <t>poner aire</t>
-  </si>
-  <si>
-    <t>i fixed the flat on my bicycle tire nd then blew it up</t>
-  </si>
-  <si>
-    <t>ampliar</t>
-  </si>
-  <si>
-    <t>this is a nice picture, can you blow it up to an eight by ten?</t>
-  </si>
-  <si>
-    <t>hacer una amplicacion de</t>
-  </si>
-  <si>
-    <t>we're going to blow this picture of our daughters up</t>
-  </si>
-  <si>
-    <t>exagerar</t>
-  </si>
-  <si>
-    <t>the minister blew up the incident to the point that an international conflict developed</t>
-  </si>
-  <si>
-    <t>regañar</t>
-  </si>
-  <si>
-    <t>the manager blew up at the bellboy for forgetting a piece of luggage in the lobby</t>
-  </si>
-  <si>
-    <t>my dad blew up at me for letting the dog in</t>
-  </si>
-  <si>
-    <t>extallar</t>
-  </si>
-  <si>
-    <t>some stickes of dynamite blew up unexpectedly in the mine shaft, causing it to implode</t>
-  </si>
-  <si>
-    <t>explotar</t>
-  </si>
-  <si>
-    <t>an explosive device blew up at a mall in the city center</t>
-  </si>
-  <si>
-    <t>another car bomb blew up in front of a hotel near the war zone</t>
-  </si>
-  <si>
-    <t>desatarse</t>
-  </si>
-  <si>
-    <t>we had to run back home when the storm blew up</t>
-  </si>
-  <si>
-    <t>james blew up when he found out that his dog had eaten the winning lottery ticket</t>
-  </si>
-  <si>
-    <t>ponerse furioso</t>
-  </si>
-  <si>
-    <t>the teacher blew up for no reason at all</t>
-  </si>
-  <si>
-    <t>boil over</t>
-  </si>
-  <si>
-    <t>of a liquid..boild and go over the top of a pan</t>
-  </si>
-  <si>
-    <t>the milk boiled over and left a terrible mess</t>
-  </si>
-  <si>
-    <t>book up</t>
-  </si>
-  <si>
-    <t>reserve a seat</t>
-  </si>
-  <si>
-    <t>the show was booked up weeks before it opened</t>
-  </si>
-  <si>
-    <t>tengo compromisos esta noche</t>
-  </si>
-  <si>
-    <t>i'm booked up for tonight</t>
-  </si>
-  <si>
-    <t>i'm booked up all next week</t>
-  </si>
-  <si>
-    <t>boss around</t>
-  </si>
-  <si>
-    <t>keep telling someone what to do</t>
-  </si>
-  <si>
-    <t>i know what i'm doing! Stop bossing me around</t>
-  </si>
-  <si>
-    <t>bottle up</t>
-  </si>
-  <si>
-    <t>feeling..suppress feeling</t>
-  </si>
-  <si>
-    <t>i was very angry but i tried to bottle up my feeling</t>
-  </si>
-  <si>
-    <t>branch out</t>
-  </si>
-  <si>
-    <t>develop in new areas</t>
-  </si>
-  <si>
-    <t>this firm should branch out and develop different products</t>
-  </si>
-  <si>
-    <t>the company has branched out into electronics</t>
-  </si>
-  <si>
-    <t>break away</t>
-  </si>
-  <si>
-    <t>separe from  political party</t>
-  </si>
-  <si>
-    <t>some dissidents broke away and formed their own party</t>
-  </si>
-  <si>
-    <t>desprenderse</t>
-  </si>
-  <si>
-    <t>a large piece of the glacier broke away</t>
-  </si>
-  <si>
-    <t>separarse</t>
-  </si>
-  <si>
-    <t>several members of the band broke away to form their own project</t>
-  </si>
-  <si>
-    <t>this new faction is breaking away from the established polices of the party</t>
-  </si>
-  <si>
-    <t>escapar</t>
-  </si>
-  <si>
-    <t>pippen picked the ball off and broke away down the court</t>
-  </si>
-  <si>
-    <t>salir</t>
-  </si>
-  <si>
-    <t>the politician broke away from his party and founded a new one</t>
-  </si>
-  <si>
-    <t>break down</t>
-  </si>
-  <si>
-    <t>stop working</t>
-  </si>
-  <si>
-    <t>my car broke down at the traffic lights</t>
-  </si>
-  <si>
-    <t>lost control of your emotions</t>
-  </si>
-  <si>
-    <t>my aunt broke down when she heard the awful news</t>
-  </si>
-  <si>
-    <t>keep hitting something until falls to the ground</t>
-  </si>
-  <si>
-    <t>we had to break down the door to get in</t>
-  </si>
-  <si>
-    <t>averiarse</t>
-  </si>
-  <si>
-    <t>my ca broke down in the middle of nomwhere, so i had to hitchhike</t>
-  </si>
-  <si>
-    <t>the car broke down because the radiator overheated</t>
-  </si>
-  <si>
-    <t>desglosar</t>
-  </si>
-  <si>
-    <t>i can break down the charges on your bill so it's easier to understand</t>
-  </si>
-  <si>
-    <t>descomponer</t>
-  </si>
-  <si>
-    <t>it can be difficult to break down a complicated sentence</t>
-  </si>
-  <si>
-    <t>break in</t>
-  </si>
-  <si>
-    <t>enter, using force</t>
-  </si>
-  <si>
-    <t>the firemen broke in and rescued the children from the house</t>
-  </si>
-  <si>
-    <t>interrupr a conversation</t>
-  </si>
-  <si>
-    <t>could i just broke in there and make a comment?</t>
-  </si>
-  <si>
-    <t>enter a building in order to steal something</t>
-  </si>
-  <si>
-    <t>the thieves broke in and stole all her jewellery</t>
-  </si>
-  <si>
-    <t>tame an animal</t>
-  </si>
-  <si>
-    <t>it takes patience to break in wild horses</t>
-  </si>
-  <si>
-    <t>forza la entrada</t>
-  </si>
-  <si>
-    <t>somebody broke in ans stole all of our stuff</t>
-  </si>
-  <si>
-    <t>break in on</t>
-  </si>
-  <si>
-    <t>interrupt</t>
-  </si>
-  <si>
-    <t>i hate to break in on their conversation, but it's time to go</t>
-  </si>
-  <si>
-    <t>break into</t>
-  </si>
-  <si>
-    <t>enter in order to steal something</t>
-  </si>
-  <si>
-    <t>posicion</t>
-  </si>
-  <si>
-    <t>the government took a firm stand against sanctions</t>
-  </si>
-  <si>
-    <t>puesto</t>
-  </si>
-  <si>
-    <t>i buy tomatoes from the same stand at the market each week</t>
-  </si>
-  <si>
-    <t>the merchant positioned his stand in the main street</t>
-  </si>
-  <si>
-    <t>soportar</t>
-  </si>
-  <si>
-    <t>the doctor asked me if i could stand the pain</t>
-  </si>
-  <si>
-    <t>permanecer de pie</t>
-  </si>
-  <si>
-    <t>i had to stand because there weren't more seats</t>
-  </si>
-  <si>
-    <t>there weren't free seats and we had to stand up for the whole concert</t>
-  </si>
-  <si>
-    <t>you can't be standing up when the bus is moving</t>
-  </si>
-  <si>
-    <t>despertar</t>
-  </si>
-  <si>
-    <t>the sunrays woke me in the morning</t>
-  </si>
-  <si>
-    <t>i always wake up when i hear the rooster outsite</t>
-  </si>
-  <si>
-    <t>can you turn down the music, please? You're going to wake the baby</t>
-  </si>
-  <si>
-    <t>wake me up before you go</t>
-  </si>
-  <si>
-    <t>i wake up early in the morning to exercise</t>
-  </si>
-  <si>
-    <t>i need an alarm clock to wake up on time</t>
-  </si>
-  <si>
-    <t>despertarse</t>
-  </si>
-  <si>
-    <t>my son wakes at eight o'clock to go to school</t>
-  </si>
-  <si>
-    <t>the girl woke from a nightmare and went runnig to her parent's room</t>
-  </si>
-  <si>
-    <t>i couldn't remenber anything when i woke, but the doctor told me that the surgery went fine</t>
-  </si>
-  <si>
-    <t>velatorio</t>
-  </si>
-  <si>
-    <t>the wake was held before the burial</t>
-  </si>
-  <si>
-    <t>a lot of people came to my father's wake, but only a few were at the funeral</t>
-  </si>
-  <si>
-    <t>velorio</t>
-  </si>
-  <si>
-    <t>i'm sorry for your loss, what time will the wake be?</t>
-  </si>
-  <si>
-    <t>latir</t>
-  </si>
-  <si>
-    <t>my heart beats quickly when i am nervous</t>
-  </si>
-  <si>
-    <t>the average heart beats 70 times a minute</t>
-  </si>
-  <si>
-    <t>latido</t>
-  </si>
-  <si>
-    <t>with the stethoscope, ican hear every beat of your heart</t>
-  </si>
-  <si>
-    <t>golpear</t>
-  </si>
-  <si>
-    <t>there isn't good reason for beating a person</t>
-  </si>
-  <si>
-    <t>she beat the pillow with her hand until it softened up</t>
-  </si>
-  <si>
-    <t>batir</t>
-  </si>
-  <si>
-    <t>i beat two eggs with a fork</t>
-  </si>
-  <si>
-    <t>now, beat the ingredients until they form a better</t>
-  </si>
-  <si>
-    <t>ganar</t>
-  </si>
-  <si>
-    <t>we beat the current champions to reach the grand final</t>
-  </si>
-  <si>
-    <t>i can't believe that team beat us</t>
-  </si>
-  <si>
-    <t>they beat us two to nothing</t>
-  </si>
-  <si>
-    <t>superar</t>
-  </si>
-  <si>
-    <t>the runner easily beat all his opponents</t>
-  </si>
-  <si>
-    <t>ritmo</t>
-  </si>
-  <si>
-    <t>the crowd was dancing to the beat of the music</t>
-  </si>
-  <si>
-    <t>golpe</t>
-  </si>
-  <si>
-    <t>the performance began with the beat of a drum</t>
-  </si>
-  <si>
-    <t>agotado</t>
-  </si>
-  <si>
-    <t>i feel beat after a long day at work</t>
-  </si>
-  <si>
-    <t>in many states, it is prohibited for parents to beat their children</t>
-  </si>
-  <si>
-    <t>vencer</t>
-  </si>
-  <si>
-    <t>the mexicans beat the french in the battle of puebla on may 5, 1862</t>
-  </si>
-  <si>
-    <t>convertirse en</t>
-  </si>
-  <si>
-    <t>they say that the governor will become the next president</t>
-  </si>
-  <si>
-    <t>llegar a ser</t>
-  </si>
-  <si>
-    <t>my daughter wants to become a doctor</t>
-  </si>
-  <si>
-    <t>volverse</t>
-  </si>
-  <si>
-    <t>he became distant and didn't contact her for nearly a week</t>
-  </si>
-  <si>
-    <t>my father has become more active since his retiremnt</t>
-  </si>
-  <si>
-    <t>hacerse</t>
-  </si>
-  <si>
-    <t>after many years of study, he finally became an lawyer</t>
-  </si>
-  <si>
-    <t>the election process must become simpler for the voters</t>
-  </si>
-  <si>
-    <t>ponerse</t>
-  </si>
-  <si>
-    <t>she became sad upon hearing the tragic news</t>
-  </si>
-  <si>
-    <t>favorecer</t>
-  </si>
-  <si>
-    <t>that tone of blue really becomes you</t>
-  </si>
-  <si>
-    <t>i think that the red dress becomes me</t>
-  </si>
-  <si>
-    <t>quedar</t>
-  </si>
-  <si>
-    <t>that hair cut doesn't become her</t>
-  </si>
-  <si>
-    <t>sentar bien</t>
-  </si>
-  <si>
-    <t>livin at the beach becomes you</t>
-  </si>
-  <si>
-    <t>ser propio de</t>
-  </si>
-  <si>
-    <t>that way of speaking doesn't become a teacher</t>
-  </si>
-  <si>
-    <t>Que va a ser de el?</t>
-  </si>
-  <si>
-    <t>what will become of him?</t>
-  </si>
-  <si>
-    <t>no se que ha sido de ella</t>
-  </si>
-  <si>
-    <t>i don't know what has become of her</t>
-  </si>
-  <si>
-    <t>empeze a inquietarme muchisimo</t>
-  </si>
-  <si>
-    <t>i became very worried</t>
-  </si>
-  <si>
-    <t>el quedo ciego</t>
-  </si>
-  <si>
-    <t>he became blind</t>
-  </si>
-  <si>
-    <t>esto se esta poniendo dificil</t>
-  </si>
-  <si>
-    <t>this is becoming difficult</t>
-  </si>
-  <si>
-    <t>cuando cumpla los 21 años</t>
-  </si>
-  <si>
-    <t>when he becomes 21</t>
-  </si>
-  <si>
-    <t>gas se convirtio en liquido</t>
-  </si>
-  <si>
-    <t>the gas becomes liquid</t>
-  </si>
-  <si>
-    <t>later this lady became his wife</t>
-  </si>
-  <si>
-    <t>what will become of me?</t>
-  </si>
-  <si>
-    <t>suceder</t>
-  </si>
-  <si>
-    <t>everything happened too fast</t>
-  </si>
-  <si>
-    <t>ocurrir</t>
-  </si>
-  <si>
-    <t>i can't believe what just happened</t>
-  </si>
-  <si>
-    <t>how did it happen?</t>
-  </si>
-  <si>
-    <t>when did the accident happen?</t>
-  </si>
-  <si>
-    <t>what's happening?</t>
-  </si>
-  <si>
-    <t>everthing bad happens to me</t>
-  </si>
-  <si>
-    <t>de casualidad</t>
-  </si>
-  <si>
-    <t>if you happen to come by the office, we could get a coffee</t>
-  </si>
-  <si>
-    <t>paso</t>
-  </si>
-  <si>
-    <t>it happened ten years ago</t>
-  </si>
-  <si>
-    <t>what has happened to him?</t>
-  </si>
-  <si>
-    <t>pase lo que pase</t>
-  </si>
-  <si>
-    <t>whatever happens</t>
-  </si>
-  <si>
-    <t>comentzar</t>
-  </si>
-  <si>
-    <t>the trial began with the testimony of a witness</t>
-  </si>
-  <si>
-    <t>the final term of the school year is about to begin</t>
-  </si>
-  <si>
-    <t>i like to begin the day with a cup of hot coffee</t>
-  </si>
-  <si>
-    <t>we were waiting at the bus stop when the storm started</t>
-  </si>
-  <si>
-    <t>empezar</t>
-  </si>
-  <si>
-    <t>we began the exam at noon</t>
-  </si>
-  <si>
-    <t>let me begin by thanking you for being here this afternoon</t>
-  </si>
-  <si>
-    <t>iniciar</t>
-  </si>
-  <si>
-    <t>next week, we begin a new phase for our company</t>
-  </si>
-  <si>
-    <t>the new healthcare program begins january 1st</t>
-  </si>
-  <si>
-    <t>originarse</t>
-  </si>
-  <si>
-    <t>the tradition of the american boarding school began in england</t>
-  </si>
-  <si>
-    <t>nacer</t>
-  </si>
-  <si>
-    <t>the amazon river begins in peru</t>
-  </si>
-  <si>
-    <t>apartir del lunes</t>
-  </si>
-  <si>
-    <t>beginning from Monday</t>
-  </si>
-  <si>
-    <t>the teacher began by writting on the board</t>
-  </si>
-  <si>
-    <t>the work will begin tomorrow</t>
-  </si>
-  <si>
-    <t>the students began working after the professor's explanation</t>
-  </si>
-  <si>
-    <t>aviso</t>
-  </si>
-  <si>
-    <t>the student was given notice of his suspension</t>
-  </si>
-  <si>
-    <t>the company changed the conditions without prior notice</t>
-  </si>
-  <si>
-    <t>el cartel</t>
-  </si>
-  <si>
-    <t>there are notices about the missing dog all over the neighborhood</t>
-  </si>
-  <si>
-    <t>el letrero</t>
-  </si>
-  <si>
-    <t>the put up a notice that his street would be close for a month</t>
-  </si>
-  <si>
-    <t>el preaviso</t>
-  </si>
-  <si>
-    <t>i gave my boss a month's notice, which is more that the standard</t>
-  </si>
-  <si>
-    <t>before moving out, you must give one month's notice</t>
-  </si>
-  <si>
-    <t>el anuncio</t>
-  </si>
-  <si>
-    <t>there was a notice of the professor's passing in the paper today</t>
-  </si>
-  <si>
-    <t>la atencion</t>
-  </si>
-  <si>
-    <t>i look on notice of the problem</t>
-  </si>
-  <si>
-    <t>darse cuenta</t>
-  </si>
-  <si>
-    <t>we noticed he was acting strange</t>
-  </si>
-  <si>
-    <t>fijarse en</t>
-  </si>
-  <si>
-    <t>did you notice how he spits when he talks?</t>
-  </si>
-  <si>
-    <t>notar</t>
-  </si>
-  <si>
-    <t>i noticed you got a suntan during your vacation</t>
-  </si>
-  <si>
-    <t>my students noticed my new haircut</t>
-  </si>
-  <si>
-    <t>you cut your hair, i'm sorrym i hadn't noticed</t>
-  </si>
-  <si>
-    <t>hasta un nuevo avsio</t>
-  </si>
-  <si>
-    <t>until further notice</t>
-  </si>
-  <si>
-    <t>en poco time</t>
-  </si>
-  <si>
-    <t>at short notice</t>
-  </si>
-  <si>
-    <t>enseguida | | cualquier momento</t>
-  </si>
-  <si>
-    <t>at a moment's notice</t>
-  </si>
-  <si>
-    <t>have you noticed anything strange in her behavior?</t>
-  </si>
-  <si>
-    <t>no nos habian avisado</t>
-  </si>
-  <si>
-    <t>we hadn't notice of it</t>
-  </si>
-  <si>
-    <t>observar</t>
-  </si>
-  <si>
-    <t>i noticed a change of tone in my friend's voice</t>
-  </si>
-  <si>
-    <t>reconocer</t>
-  </si>
-  <si>
-    <t>my friend noticed me at the party and waved to me</t>
-  </si>
-  <si>
-    <t>curva</t>
-  </si>
-  <si>
-    <t>the mounth road has a lot of sharp bends</t>
-  </si>
-  <si>
-    <t>bend the sides in, and then you can put the top on</t>
-  </si>
-  <si>
-    <t>doblar</t>
-  </si>
-  <si>
-    <t>bend the pipe to a 90 degree angle</t>
-  </si>
-  <si>
-    <t>the machine can bend copper pipes</t>
-  </si>
-  <si>
-    <t>dirigir</t>
-  </si>
-  <si>
-    <t>she bent her gaze to the horizon just in time to see the last rays of the day</t>
-  </si>
-  <si>
-    <t>concentrat</t>
-  </si>
-  <si>
-    <t>he bent his mind to planning the peace conference</t>
-  </si>
-  <si>
-    <t>the baby bent his head to the side in wonder at the sight of the ladybug</t>
-  </si>
-  <si>
-    <t>la curva</t>
-  </si>
-  <si>
-    <t>look out. There's a sharp bend in the road ahead</t>
-  </si>
-  <si>
-    <t>el angulo</t>
-  </si>
-  <si>
-    <t>we'll need a few bends in these pipes to get the water from the street up into the tank</t>
-  </si>
-  <si>
-    <t>el codo(tuberia)</t>
-  </si>
-  <si>
-    <t>the plumber always finds clogs in the bends</t>
-  </si>
-  <si>
-    <t>la gaza(nudo, bucle)</t>
-  </si>
-  <si>
-    <t>tie a bend in the rope to make it easier to attach the anchor line</t>
-  </si>
-  <si>
-    <t>la banda</t>
-  </si>
-  <si>
-    <t>my familyos coal of arms has a crimson bend running across it diagonally</t>
-  </si>
-  <si>
-    <t>doblarse</t>
-  </si>
-  <si>
-    <t>the branch began to bend under the weight of the cat</t>
-  </si>
-  <si>
-    <t>inclinarse</t>
-  </si>
-  <si>
-    <t>the tree bent in the gale force wind</t>
-  </si>
-  <si>
-    <t>torcerse</t>
-  </si>
-  <si>
-    <t>the suitcase handle bent and needs to be fixed</t>
-  </si>
-  <si>
-    <t>torcer</t>
-  </si>
-  <si>
-    <t>the road ahead bends to the right</t>
-  </si>
-  <si>
-    <t>the strong man bent the metal var with his hands</t>
-  </si>
-  <si>
-    <t>ceder</t>
-  </si>
-  <si>
-    <t>anthony refused to bend to the invaders</t>
-  </si>
-  <si>
-    <t>llorar</t>
-  </si>
-  <si>
-    <t>the whole country grieved for the dead president</t>
-  </si>
-  <si>
-    <t>llorar la perdida de</t>
-  </si>
-  <si>
-    <t>yasmin is grieving for david, who passed away on Sunday night</t>
-  </si>
-  <si>
-    <t>llorar la muerte  de</t>
-  </si>
-  <si>
-    <t>at the time she was grieving for her husband and her older brother, who both died in the same week</t>
-  </si>
-  <si>
-    <t>hacer el duelo</t>
-  </si>
-  <si>
-    <t>families need time to grieve after a child dies</t>
-  </si>
-  <si>
-    <t>hacer luto</t>
-  </si>
-  <si>
-    <t>when the accident happened, i had a little baby to think of so i couldn't grieve</t>
-  </si>
-  <si>
-    <t>sufrir</t>
-  </si>
-  <si>
-    <t>the entire city grieved the tremendous loss of life after the bombings</t>
-  </si>
-  <si>
-    <t>entristecer</t>
-  </si>
-  <si>
-    <t>his sister died young, and her loss grieved him greatly</t>
-  </si>
-  <si>
-    <t>doler</t>
-  </si>
-  <si>
-    <t>it grieved him deeply when his wife died</t>
-  </si>
-  <si>
-    <t>dar pena</t>
-  </si>
-  <si>
-    <t>it grieves me to see that nothing is being done about climete change</t>
-  </si>
-  <si>
-    <t>lamento tener que decirte que</t>
-  </si>
-  <si>
-    <t>it grieves me to have to tell you that</t>
-  </si>
-  <si>
-    <t>me da pena ver</t>
-  </si>
-  <si>
-    <t>it grieves me to see</t>
-  </si>
-  <si>
-    <t>apostar</t>
-  </si>
-  <si>
-    <t>the horse that i bet on won the race</t>
-  </si>
-  <si>
-    <t>i'll bet you my team wins</t>
-  </si>
-  <si>
-    <t>we bet on horse number four</t>
-  </si>
-  <si>
-    <t>apuesta</t>
-  </si>
-  <si>
-    <t>unfortunately, i have lost the bet</t>
-  </si>
-  <si>
-    <t>he lost a lot of money on his last bet</t>
-  </si>
-  <si>
-    <t>ofrecer</t>
-  </si>
-  <si>
-    <t>$ 2000 is more than i'm prepared to bib for that painting</t>
-  </si>
-  <si>
-    <t>puajr</t>
-  </si>
-  <si>
-    <t>paco bid two millon dollars for the sculpture</t>
-  </si>
-  <si>
-    <t>william bade me tell you that he loves you dearly</t>
-  </si>
-  <si>
-    <t>mandar</t>
-  </si>
-  <si>
-    <t>his monther bade him hold his tongue</t>
-  </si>
-  <si>
-    <t>hacer una oferta</t>
-  </si>
-  <si>
-    <t>are you going to bid for that table?</t>
-  </si>
-  <si>
-    <t>declarar</t>
-  </si>
-  <si>
-    <t>when it's your turn, you can either bid or pass</t>
-  </si>
-  <si>
-    <t>atar</t>
-  </si>
-  <si>
-    <t>the kidnappers bound his hands and feet</t>
-  </si>
-  <si>
-    <t>i bound the packages together with string and tape</t>
-  </si>
-  <si>
-    <t>amarrar</t>
-  </si>
-  <si>
-    <t>the neigbors caught the burglar and bound him to a tree while they waited for the police to arrive</t>
-  </si>
-  <si>
-    <t>encuadernar</t>
-  </si>
-  <si>
-    <t>in the past, it was common to bind books in leather</t>
-  </si>
-  <si>
-    <t>i need to bind my thesis before submiting it</t>
-  </si>
-  <si>
-    <t>empastar</t>
-  </si>
-  <si>
-    <t>the company binds books on demand</t>
-  </si>
-  <si>
-    <t>obligar</t>
-  </si>
-  <si>
-    <t>this document binds you to comply with the terms of the agreement, or pay a penalty</t>
-  </si>
-  <si>
-    <t>unir</t>
-  </si>
-  <si>
-    <t>use water to bind flour and fat</t>
-  </si>
-  <si>
-    <t>the material is designed to bind metal plates</t>
-  </si>
-  <si>
-    <t>envolver</t>
-  </si>
-  <si>
-    <t>she used to bind her head with a red scarf</t>
-  </si>
-  <si>
-    <t>vendar</t>
-  </si>
-  <si>
-    <t>the nurse bound his head with gauze after cleaning the wound</t>
-  </si>
-  <si>
-    <t>trabasse</t>
-  </si>
-  <si>
-    <t>the gears bound and the machine came to a halt</t>
-  </si>
-  <si>
-    <t>aprieto</t>
-  </si>
-  <si>
-    <t>i was in a bind and didn't know what to do</t>
-  </si>
-  <si>
-    <t>morder</t>
-  </si>
-  <si>
-    <t>the vampire bit his victim on the neck and drank her blood</t>
-  </si>
-  <si>
-    <t>aggar</t>
-  </si>
-  <si>
-    <t>the saw won't bite the wood; i think it's broken</t>
-  </si>
-  <si>
-    <t>picar</t>
-  </si>
-  <si>
-    <t>that darn mosquito bit me</t>
-  </si>
-  <si>
-    <t>la mordedura</t>
-  </si>
-  <si>
-    <t>rebies is usually transmitted to humans through a dog bite</t>
-  </si>
-  <si>
-    <t>you need to clean that dog bite wiht alcohol</t>
-  </si>
-  <si>
-    <t>bocado</t>
-  </si>
-  <si>
-    <t>after the first bite, you will love my empanadas</t>
-  </si>
-  <si>
-    <t>take a bite of this tart</t>
-  </si>
-  <si>
-    <t>don't go near the dog because it bites</t>
-  </si>
-  <si>
-    <t>pican</t>
-  </si>
-  <si>
-    <t>the fish aren't biting today</t>
-  </si>
-  <si>
-    <t>apestar</t>
-  </si>
-  <si>
-    <t>this pizza seriously bites, i mean, it doesnt even have cheese on it</t>
-  </si>
-  <si>
-    <t>sangar</t>
-  </si>
-  <si>
-    <t>i cut my finger when i was cooking, and it won't stop bleeding</t>
-  </si>
-  <si>
-    <t>salir sangre</t>
-  </si>
-  <si>
-    <t>his nose is still bleeding</t>
-  </si>
-  <si>
-    <t>can you repeat that, please?</t>
-  </si>
-  <si>
-    <t>whar's hola in english?</t>
-  </si>
-  <si>
-    <t>what does complete mean?</t>
-  </si>
-  <si>
-    <t>can you help me, please?</t>
-  </si>
-  <si>
-    <t>what other english word do you now?</t>
-  </si>
-  <si>
-    <t>what's the answer to number 4?</t>
-  </si>
-  <si>
-    <t>what can you see?</t>
-  </si>
-  <si>
-    <t>what's your name?</t>
-  </si>
-  <si>
-    <t>where are you from, edwin?</t>
-  </si>
-  <si>
-    <t>where in bucaramanga?</t>
-  </si>
-  <si>
-    <t>who's she?</t>
-  </si>
-  <si>
-    <t>is she carolina?</t>
-  </si>
-  <si>
-    <t>what's your favourite film?</t>
-  </si>
-  <si>
-    <t>how do we say these numbers?</t>
-  </si>
-  <si>
-    <t>what's your mobile number?</t>
-  </si>
-  <si>
-    <t>sorry, can you say that again?</t>
-  </si>
-  <si>
-    <t>sorry, could you repeat that?</t>
-  </si>
-  <si>
-    <t>is he your uncle?</t>
-  </si>
-  <si>
-    <t>can you say the vowels in english?</t>
-  </si>
-  <si>
-    <t>what sound do they have in common?</t>
-  </si>
-  <si>
-    <t>how do you spell that?</t>
-  </si>
-  <si>
-    <t>is edwin late?</t>
-  </si>
-  <si>
-    <t>what is edwin's full name?</t>
-  </si>
-  <si>
-    <t>are edwin and jhon cousins?</t>
-  </si>
-  <si>
-    <t>are edwin and carolina married?</t>
-  </si>
-  <si>
-    <t>how do you spell your name?</t>
-  </si>
-  <si>
-    <t>who are they?</t>
-  </si>
-  <si>
-    <t>is she their mother?</t>
-  </si>
-  <si>
-    <t>what is your bag?</t>
-  </si>
-  <si>
-    <t>what else ?</t>
-  </si>
-  <si>
-    <t>what is for sale?</t>
-  </si>
-  <si>
-    <t>how old is she?</t>
-  </si>
-  <si>
-    <t>what are the names of the people in the photos?</t>
-  </si>
-  <si>
-    <t>who's his wife?</t>
-  </si>
-  <si>
-    <t>is edwin married?</t>
-  </si>
-  <si>
-    <t>is edwin her boyfriend</t>
-  </si>
-  <si>
-    <t>what is your email address?</t>
-  </si>
-  <si>
-    <t>what do the people order?</t>
-  </si>
-  <si>
-    <t>what is the restaurant's name?</t>
-  </si>
-  <si>
-    <t>eat in or take away?</t>
-  </si>
-  <si>
-    <t>sure, anything else?</t>
-  </si>
-  <si>
-    <t>what is the opposite of hard?</t>
-  </si>
-  <si>
-    <t>is your hotel open?</t>
-  </si>
-  <si>
-    <t>what's the hotel's number?</t>
-  </si>
-  <si>
-    <t>how much is that?</t>
-  </si>
-  <si>
-    <t>how much it that all togerther?</t>
-  </si>
-  <si>
-    <t>can i pay by credit card or cash?</t>
-  </si>
-  <si>
-    <t>what's edwin's drink?</t>
-  </si>
-  <si>
-    <t>how are you?</t>
-  </si>
-  <si>
-    <t>how is your mother?</t>
-  </si>
-  <si>
-    <t>what's photo?</t>
-  </si>
-  <si>
-    <t>what about you?</t>
-  </si>
-  <si>
-    <t>what is your favourite city for a holiday?</t>
+    <t xml:space="preserve">stand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">woke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was-were</t>
+  </si>
+  <si>
+    <t xml:space="preserve">been</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beaten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">become</t>
+  </si>
+  <si>
+    <t xml:space="preserve">became</t>
+  </si>
+  <si>
+    <t xml:space="preserve">happen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">happened</t>
+  </si>
+  <si>
+    <t xml:space="preserve">procreate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">procreated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">begin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">began</t>
+  </si>
+  <si>
+    <t xml:space="preserve">begun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noticed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grieve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grieved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bitten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bleed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">break</t>
+  </si>
+  <si>
+    <t xml:space="preserve">broke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">broken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">breed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brought</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can</t>
+  </si>
+  <si>
+    <t xml:space="preserve">could</t>
+  </si>
+  <si>
+    <t xml:space="preserve">able to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">catch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caught</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chosen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clothe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clothed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">come</t>
+  </si>
+  <si>
+    <t xml:space="preserve">came</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">durst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dealt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did</t>
+  </si>
+  <si>
+    <t xml:space="preserve">done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">draw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drawn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dreamt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drunk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">driven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eaten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fallen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fought</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find</t>
+  </si>
+  <si>
+    <t xml:space="preserve">found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stopped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forbid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forbade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forbidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forgot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forgotten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forgive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forgave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forgiven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freeze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">froze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frozen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get</t>
+  </si>
+  <si>
+    <t xml:space="preserve">got</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gotten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fasten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fastened</t>
+  </si>
+  <si>
+    <t xml:space="preserve">give</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given</t>
+  </si>
+  <si>
+    <t xml:space="preserve">go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">went</t>
+  </si>
+  <si>
+    <t xml:space="preserve">been/gone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ground</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hanged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">had</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">held</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hurt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kneel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">knelt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">knit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">know</t>
+  </si>
+  <si>
+    <t xml:space="preserve">knew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">known</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">laid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">led</t>
+  </si>
+  <si>
+    <t xml:space="preserve">learn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">learned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">learnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">let</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make</t>
+  </si>
+  <si>
+    <t xml:space="preserve">made</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">met</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">put</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rented</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ride</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ridden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">risen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sawed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sawn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">say</t>
+  </si>
+  <si>
+    <t xml:space="preserve">said</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sought</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">send</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sewed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shaken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sheared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shoe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shoed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shoot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show</t>
+  </si>
+  <si>
+    <t xml:space="preserve">showed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shrink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shrank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shrunk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">account for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dar cuenta, explicar, justificar, tener en cuenta,  acabar con</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acuse of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acusado de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">act on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actuar, tomar action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">añadir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add up to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sumar, resultado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aim at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apuntar, afectar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">answer to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">responder,  dar cuentas, respuesta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approve of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aprovar, gustar, admitir, de acuerdo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ask for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pedir, solicitar, preguntar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ask in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preguntar para que venga donde estamos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ask out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invitar a alguin a salir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">back away</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retroceder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">back down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echarse atrás, dar marcha atrás (arrepentirse de hacer algo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">back out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echarse atrás, dar machar atrás, retirarse de algun contrato o acuerdo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">back up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">respaltas, hacer copia de seguridad, confirmar,  reversa, retroceder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bail out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saltar de alguna aeronave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barge in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interrumpir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">batter down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derribar a golpes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be away</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ir se algun lado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dar cuentas de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enemy bombing accounted for several iconic buildings in the capital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explicar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how do you account for thier behaviour?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how do you account for it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i can't account for it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">that account for it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the student had to account for the loss of the book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Justificar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the worker had to account for his absence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tener en cuenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did you account for the cost of materials in your estimate for the building work?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we must take this into account for two reasons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">representar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my rent accounts for nearly half my wages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">children account for 5 percent of the audience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acabar con</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the flu epidemic of 1918 accounted for millions of lives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">one bomb accounted for the power station</t>
+  </si>
+  <si>
+    <t xml:space="preserve">they accounted for three stags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the ship accounted for three enemy aircraft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accuse of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">he was accused of stealing the money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">take action as the result of (eg advice)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">take action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we acted on your advice and took the early train</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actuar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we must think on a european level, but act on a regional level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">include in your calculations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">don't forget to add on some money for expenses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the new software provides interesting add-on features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">you have to add 15 dollars on for service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we added two rooms on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">then, add another seven percent on the bill for salex tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i have nothing to add on the matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it adds up to 22 dollars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resultado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what does this add up to?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the money owed added up to over two thousand pounds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">try to affect or influence certain people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">influencio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this advertisement is obviosly aimed at teenagers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apuntar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the archer aimed at the target and shot the arrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dar cuentas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i answer to nobody</t>
+  </si>
+  <si>
+    <t xml:space="preserve">responde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the dog answers to the name of trosky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">respuestas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check your answer to be sure it is correct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">think something is good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aprobar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i don't approve of all this loud modern music</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i don't say i approve of his behavior, simply that i can understand why he does it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my parents have never approved of my girlfriend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aprobar/gustar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">she doesn't approve of them smoking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i dont approve of your friend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de acuerdo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not everyone approves of the festival</t>
+  </si>
+  <si>
+    <t xml:space="preserve">he doesn't approve of drinking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i don't approve of her going</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make something likely on happen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pedir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i may ask you for some help if i can't do this alone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i always ask for permission to avoid being rude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we asked the expert for a comprehensive analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">he wrote asking for help</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solicitar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i called customer service and asked for information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i asked the company for additional information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preguntar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">there's someone asking for you at reception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">son, one of your friends is asking for youat the door</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ask someone to come in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">don't leave your friend on the doorstep, ask bim in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ask someone to go out with you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i asked carolay out but she said she had lots of homework to do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retrear move backwards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the bank staff backed away as the gunman came nearer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">back away from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retrear from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the postman backed away from the angry dog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no long keep to your position in an argument</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neither party wanted to back down so the argument continued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echarse atrás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the insurance company finally backed down and agreed to pay the customer's claim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dar marcha atrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the government is refusing to back down on its proposals for labor union reform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we have to find a way of getting her to back down without losing face</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not do as primised</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the pianist had backed out so i've got to find another one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">he said he was goingto help make dinner, and then he backed out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">volverse atrás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">robert backed out of the fight when he learned who he'd be boxing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retirarse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i don't feel safe in this neighborhood anymore and i may back out of my lease agreement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">back out of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with draw from (eg an agreement)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i'll back out of the agreement unless things improve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">give someone help and support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my friends backed me up when i complained about the noise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apoyar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the officer called for more police to back her up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confirmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this certified document backs up my claim to mr. Willian's estate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">copia de trabajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i always back up mu work in case something happens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echar en reversa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i had to back up the car because i entered a dead end alley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">copia de seguridad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remenber to back up tje financia data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i backed up slowly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(of a pilot) jump out of an aeroplane in flight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the pilot managed to bail out just before the plane crashed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rush in rudely, interrupt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carlos  barge in just as the conversation was getting interesting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keep hitting something until it falls to the ground</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the firemen had to batter down the door to get in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have gone somewhere else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">our head of department's away on a business trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i'll be away next week, so you are in charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my son will be away at college until chirstmas vacation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feel depressed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">he's been down ever since his dog died</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have falllen, decreased</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unfortunately, profits are down by 20 per cent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have caught some kind of illness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barry can't come to the meeting, he's down with a virus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arrive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">competitio entries must be in by the end of the week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have come into fashion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">that hairstyle is definitely in at the moment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be at home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">she should be in from work soon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be high</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when the tide is in, ther isn't much room on the beach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">esta en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the novel should be in the fiction section of the library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quedar en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">after you have a heart-to-hear with zach, all  your problems with him will be in the past</t>
+  </si>
+  <si>
+    <t xml:space="preserve">llegar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the doctor will be in tomorrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all requests should be in writing and notarized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be in on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be involved in something</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i don't know much about it as i wasn't in on the planning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start a journey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when are you off? At six o'clock tomorrow evening</t>
+  </si>
+  <si>
+    <t xml:space="preserve">of food … have gone bad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smell this cream,  i think it's off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be taking place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the play is on for another three nights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be working, have been switched on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">there must be someone inside, the television is on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estar en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">your money is on the table. Don't forget it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estar sobre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">where is my jacket? I think it's on the chair in the other room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estar encima de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the biggest tree i have ever seen is on this mountain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estar encendido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">why isn't the television working? Is it on?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this room is always dark, even when the light is on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not be at home, have left a building temporarily</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the boss is out at the moment but he'll be back soon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be out of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no longer have any left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i'm afraid we're out of sugar at the moment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have risen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">profits are up by fifty per cent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have got out of bed to start the day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gerry's so lazy it's eleven o'clock and she still isn't up yet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">of time…have expired</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time's up. Please stop writing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be up to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be doing. Usually something wrong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">you're looking guilty. What have you been up to?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beat down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shine and be extremely hot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it was midday and the sun was beating down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conseguir una rebaja en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i beat him down to 50 dollar for the dress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beat up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hit or kick someone and hurt them badly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the thieves beat the victim up and stole all his money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pegar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bruno told me he would beat me up if i didn't give him my lunch money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bed down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sleep somewhere unusual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we had to bed down in the stables for the night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">belong to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">be owned by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">that yacht must belong to someone really rich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apertenecer a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">these books belong to my father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ser de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this video belongs to the library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pertenece a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i belong to a local chapter of a global not-for-profit organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ser miembre de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">karo belongs to the local girl scouts group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this ribbon belongs to my pink dress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pertenecer a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this attachment belongs to the vacuum cleaner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the land belonged to my grandparents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the herd belongs to the farmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bend down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">move the top of the body downwards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">he bent down and picked up a piece of paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agacharse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diana bent down to take to take close-up of the beetle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inclinar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i bent my head down to get a closer look</t>
+  </si>
+  <si>
+    <t xml:space="preserve">black out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">top the lights working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the power cut blaked out half the city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suprimir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the editor blacked out a few sentences that seemed superflous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">borrar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the durector decided to black out a few parts of the script</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dejar a orcuras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the windstorm blacked out half the city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apagar las luces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the first move will be to attack the power station in order to black out their base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desmayarse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i'm just glad i wasn't driving when i blacked out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perder el conocimiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rodolfe hit his head and blacked out for a moment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suspender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">industrial action has blacked out this evening's programs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blare out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">of music .. .be very loud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the music blared out and gave me a terrible headache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blaze away</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bun fiercely</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the fire blazed away and soon warmed us up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shoot rapudly and continuously</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the terrorists blazed away with their machin guns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blow down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">of wind… cause to fall down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the trees were blown down by the fierce wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derribar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the wind blew down the scarecrow in the garden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blow out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extinguish…eg a candle… by blowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mother blew out the candle and the room went dark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reventarse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the front right tire blew out when i hit a nasty pothole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hacer explision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a gas well blew out, and then caught fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apagarse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a gust of wind came through the window, and the candles on the cake blew out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apagar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lauren blew out the candles on the table and picked up the dishes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soplar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jhon blew out the candles on his bithday cake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">romper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the wind blew out the glass backboard for the basketball hoop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my brave youg man, i will blow out your brains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dar una paliza a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the giants blew out the dodgers last week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exhalar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">he took a drag from his cigarette, and the blew out the smoke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hinchar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alison blew out her cheeks and said, whatever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blow over</t>
+  </si>
+  <si>
+    <t xml:space="preserve">of a storm .. .pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the stom finally blew over early this morning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caerse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the hole for the fence post needs to be nice and deep, or else it'll blow over</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ser derribado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the soccer goal had blown over during the night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pasar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it's not even worth it  to try to shovel the snow until the blizzard's blown over</t>
+  </si>
+  <si>
+    <t xml:space="preserve">olvidarse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">don't worry about derek, i know he seems mad now, but it all will have blown over by tomorrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the wind blew over the mailbox, and the package got all wet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blow up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">destry with an explosion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we'll need more explisives to blow up the bridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hacer explotar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the domlition crew blew up the building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the army blew up every bridge in the area during the war</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inflar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">do you know how to blow up a basketball with a pump?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poner aire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i fixed the flat on my bicycle tire nd then blew it up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ampliar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this is a nice picture, can you blow it up to an eight by ten?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hacer una amplicacion de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we're going to blow this picture of our daughters up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exagerar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the minister blew up the incident to the point that an international conflict developed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regañar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the manager blew up at the bellboy for forgetting a piece of luggage in the lobby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my dad blew up at me for letting the dog in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extallar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">some stickes of dynamite blew up unexpectedly in the mine shaft, causing it to implode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">explotar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">an explosive device blew up at a mall in the city center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">another car bomb blew up in front of a hotel near the war zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desatarse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we had to run back home when the storm blew up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">james blew up when he found out that his dog had eaten the winning lottery ticket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ponerse furioso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the teacher blew up for no reason at all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boil over</t>
+  </si>
+  <si>
+    <t xml:space="preserve">of a liquid..boild and go over the top of a pan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the milk boiled over and left a terrible mess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">book up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reserve a seat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the show was booked up weeks before it opened</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tengo compromisos esta noche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i'm booked up for tonight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i'm booked up all next week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boss around</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keep telling someone what to do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i know what i'm doing! Stop bossing me around</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bottle up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feeling..suppress feeling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i was very angry but i tried to bottle up my feeling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">branch out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">develop in new areas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this firm should branch out and develop different products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the company has branched out into electronics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">break away</t>
+  </si>
+  <si>
+    <t xml:space="preserve">separe from  political party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">some dissidents broke away and formed their own party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desprenderse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a large piece of the glacier broke away</t>
+  </si>
+  <si>
+    <t xml:space="preserve">separarse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">several members of the band broke away to form their own project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this new faction is breaking away from the established polices of the party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">escapar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pippen picked the ball off and broke away down the court</t>
+  </si>
+  <si>
+    <t xml:space="preserve">salir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the politician broke away from his party and founded a new one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">break down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stop working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my car broke down at the traffic lights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lost control of your emotions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my aunt broke down when she heard the awful news</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keep hitting something until falls to the ground</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we had to break down the door to get in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">averiarse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my ca broke down in the middle of nomwhere, so i had to hitchhike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the car broke down because the radiator overheated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desglosar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i can break down the charges on your bill so it's easier to understand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">descomponer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it can be difficult to break down a complicated sentence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">break in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter, using force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the firemen broke in and rescued the children from the house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interrupr a conversation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">could i just broke in there and make a comment?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter a building in order to steal something</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the thieves broke in and stole all her jewellery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tame an animal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it takes patience to break in wild horses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forza la entrada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">somebody broke in ans stole all of our stuff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">break in on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interrupt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i hate to break in on their conversation, but it's time to go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">break into</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter in order to steal something</t>
+  </si>
+  <si>
+    <t xml:space="preserve">posicion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the government took a firm stand against sanctions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">puesto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i buy tomatoes from the same stand at the market each week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the merchant positioned his stand in the main street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soportar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the doctor asked me if i could stand the pain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">permanecer de pie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i had to stand because there weren't more seats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">there weren't free seats and we had to stand up for the whole concert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">you can't be standing up when the bus is moving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">despertar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the sunrays woke me in the morning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i always wake up when i hear the rooster outsite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can you turn down the music, please? You're going to wake the baby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wake me up before you go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i wake up early in the morning to exercise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i need an alarm clock to wake up on time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">despertarse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my son wakes at eight o'clock to go to school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the girl woke from a nightmare and went runnig to her parent's room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i couldn't remenber anything when i woke, but the doctor told me that the surgery went fine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">velatorio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the wake was held before the burial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a lot of people came to my father's wake, but only a few were at the funeral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">velorio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i'm sorry for your loss, what time will the wake be?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my heart beats quickly when i am nervous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the average heart beats 70 times a minute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with the stethoscope, ican hear every beat of your heart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">golpear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">there isn't good reason for beating a person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">she beat the pillow with her hand until it softened up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">batir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i beat two eggs with a fork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">now, beat the ingredients until they form a better</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ganar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we beat the current champions to reach the grand final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i can't believe that team beat us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">they beat us two to nothing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">superar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the runner easily beat all his opponents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ritmo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the crowd was dancing to the beat of the music</t>
+  </si>
+  <si>
+    <t xml:space="preserve">golpe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the performance began with the beat of a drum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agotado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i feel beat after a long day at work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in many states, it is prohibited for parents to beat their children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vencer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the mexicans beat the french in the battle of puebla on may 5, 1862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">convertirse en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">they say that the governor will become the next president</t>
+  </si>
+  <si>
+    <t xml:space="preserve">llegar a ser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my daughter wants to become a doctor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">volverse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">he became distant and didn't contact her for nearly a week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my father has become more active since his retiremnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hacerse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">after many years of study, he finally became an lawyer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the election process must become simpler for the voters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ponerse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">she became sad upon hearing the tragic news</t>
+  </si>
+  <si>
+    <t xml:space="preserve">favorecer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">that tone of blue really becomes you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i think that the red dress becomes me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quedar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">that hair cut doesn't become her</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sentar bien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">livin at the beach becomes you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ser propio de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">that way of speaking doesn't become a teacher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que va a ser de el?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what will become of him?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no se que ha sido de ella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i don't know what has become of her</t>
+  </si>
+  <si>
+    <t xml:space="preserve">empeze a inquietarme muchisimo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i became very worried</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el quedo ciego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">he became blind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">esto se esta poniendo dificil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this is becoming difficult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cuando cumpla los 21 años</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when he becomes 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gas se convirtio en liquido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the gas becomes liquid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">later this lady became his wife</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what will become of me?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suceder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">everything happened too fast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ocurrir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i can't believe what just happened</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how did it happen?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when did the accident happen?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what's happening?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">everthing bad happens to me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de casualidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if you happen to come by the office, we could get a coffee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it happened ten years ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what has happened to him?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pase lo que pase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whatever happens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comentzar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the trial began with the testimony of a witness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the final term of the school year is about to begin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i like to begin the day with a cup of hot coffee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we were waiting at the bus stop when the storm started</t>
+  </si>
+  <si>
+    <t xml:space="preserve">empezar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we began the exam at noon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">let me begin by thanking you for being here this afternoon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iniciar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">next week, we begin a new phase for our company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the new healthcare program begins january 1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">originarse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the tradition of the american boarding school began in england</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nacer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the amazon river begins in peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apartir del lunes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beginning from Monday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the teacher began by writting on the board</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the work will begin tomorrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the students began working after the professor's explanation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aviso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the student was given notice of his suspension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the company changed the conditions without prior notice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el cartel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">there are notices about the missing dog all over the neighborhood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el letrero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the put up a notice that his street would be close for a month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el preaviso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i gave my boss a month's notice, which is more that the standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">before moving out, you must give one month's notice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el anuncio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">there was a notice of the professor's passing in the paper today</t>
+  </si>
+  <si>
+    <t xml:space="preserve">la atencion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i look on notice of the problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">darse cuenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we noticed he was acting strange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fijarse en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did you notice how he spits when he talks?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i noticed you got a suntan during your vacation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my students noticed my new haircut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">you cut your hair, i'm sorrym i hadn't noticed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasta un nuevo avsio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">until further notice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en poco time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at short notice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enseguida | | cualquier momento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at a moment's notice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have you noticed anything strange in her behavior?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no nos habian avisado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we hadn't notice of it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">observar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i noticed a change of tone in my friend's voice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reconocer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my friend noticed me at the party and waved to me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">curva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the mounth road has a lot of sharp bends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bend the sides in, and then you can put the top on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doblar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bend the pipe to a 90 degree angle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the machine can bend copper pipes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dirigir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">she bent her gaze to the horizon just in time to see the last rays of the day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concentrat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">he bent his mind to planning the peace conference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the baby bent his head to the side in wonder at the sight of the ladybug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">la curva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">look out. There's a sharp bend in the road ahead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el angulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we'll need a few bends in these pipes to get the water from the street up into the tank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el codo(tuberia)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the plumber always finds clogs in the bends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">la gaza(nudo, bucle)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tie a bend in the rope to make it easier to attach the anchor line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">la banda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my familyos coal of arms has a crimson bend running across it diagonally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doblarse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the branch began to bend under the weight of the cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inclinarse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the tree bent in the gale force wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">torcerse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the suitcase handle bent and needs to be fixed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">torcer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the road ahead bends to the right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the strong man bent the metal var with his hands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ceder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anthony refused to bend to the invaders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">llorar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the whole country grieved for the dead president</t>
+  </si>
+  <si>
+    <t xml:space="preserve">llorar la perdida de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yasmin is grieving for david, who passed away on Sunday night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">llorar la muerte  de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at the time she was grieving for her husband and her older brother, who both died in the same week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hacer el duelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">families need time to grieve after a child dies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hacer luto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when the accident happened, i had a little baby to think of so i couldn't grieve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sufrir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the entire city grieved the tremendous loss of life after the bombings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entristecer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">his sister died young, and her loss grieved him greatly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it grieved him deeply when his wife died</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dar pena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it grieves me to see that nothing is being done about climete change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lamento tener que decirte que</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it grieves me to have to tell you that</t>
+  </si>
+  <si>
+    <t xml:space="preserve">me da pena ver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it grieves me to see</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apostar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the horse that i bet on won the race</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i'll bet you my team wins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we bet on horse number four</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apuesta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unfortunately, i have lost the bet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">he lost a lot of money on his last bet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ofrecer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ 2000 is more than i'm prepared to bib for that painting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">puajr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paco bid two millon dollars for the sculpture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">william bade me tell you that he loves you dearly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mandar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">his monther bade him hold his tongue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hacer una oferta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">are you going to bid for that table?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">declarar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when it's your turn, you can either bid or pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the kidnappers bound his hands and feet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i bound the packages together with string and tape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amarrar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the neigbors caught the burglar and bound him to a tree while they waited for the police to arrive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">encuadernar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in the past, it was common to bind books in leather</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i need to bind my thesis before submiting it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">empastar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the company binds books on demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obligar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this document binds you to comply with the terms of the agreement, or pay a penalty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use water to bind flour and fat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the material is designed to bind metal plates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">envolver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">she used to bind her head with a red scarf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vendar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the nurse bound his head with gauze after cleaning the wound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trabasse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the gears bound and the machine came to a halt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aprieto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i was in a bind and didn't know what to do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">morder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the vampire bit his victim on the neck and drank her blood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aggar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the saw won't bite the wood; i think it's broken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">picar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">that darn mosquito bit me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">la mordedura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rebies is usually transmitted to humans through a dog bite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">you need to clean that dog bite wiht alcohol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bocado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">after the first bite, you will love my empanadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">take a bite of this tart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">don't go near the dog because it bites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pican</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the fish aren't biting today</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apestar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this pizza seriously bites, i mean, it doesnt even have cheese on it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sangar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i cut my finger when i was cooking, and it won't stop bleeding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">salir sangre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">his nose is still bleeding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can you repeat that, please?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whar's hola in english?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what does complete mean?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can you help me, please?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what other english word do you now?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what's the answer to number 4?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what can you see?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what's your name?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">where are you from, edwin?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">where in bucaramanga?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">who's she?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is she carolina?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what's your favourite film?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how do we say these numbers?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what's your mobile number?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sorry, can you say that again?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sorry, could you repeat that?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is he your uncle?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can you say the vowels in english?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what sound do they have in common?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how do you spell that?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is edwin late?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what is edwin's full name?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">are edwin and jhon cousins?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">are edwin and carolina married?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how do you spell your name?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">who are they?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is she their mother?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what is your bag?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what else ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what is for sale?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how old is she?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what are the names of the people in the photos?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">who's his wife?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is edwin married?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is edwin her boyfriend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what is your email address?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what do the people order?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what is the restaurant's name?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eat in or take away?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sure, anything else?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what is the opposite of hard?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is your hotel open?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what's the hotel's number?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how much is that?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how much it that all togerther?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can i pay by credit card or cash?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what's edwin's drink?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how are you?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how is your mother?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what's photo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what about you?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what is your favourite city for a holiday?</t>
   </si>
 </sst>
 </file>
@@ -2963,7 +2968,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -3130,16 +3135,16 @@
   </sheetPr>
   <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4251012145749"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.2793522267206"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.5748987854251"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="10.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4311,7 +4316,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4326,15 +4331,15 @@
   </sheetPr>
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5748987854251"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="90.421052631579"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.5748987854251"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="90.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4492,7 +4497,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4505,19 +4510,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F65536"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E243" activeCellId="0" sqref="E243"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="30.7125506072874"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="109.712550607287"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.9433198380567"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.0890688259109"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.5748987854251"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="30.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="109.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8674,7 +8679,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -8689,19 +8694,19 @@
   </sheetPr>
   <dimension ref="A1:F179"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C180" activeCellId="0" sqref="C180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="81.2834008097166"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.5748987854251"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.4858299595142"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.5748987854251"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.5748987854251"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="22.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="81.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.58"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="11.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="10.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11951,7 +11956,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -11966,15 +11971,15 @@
   </sheetPr>
   <dimension ref="B1:B53"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B54" activeCellId="0" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="104"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.5748987854251"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="104"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12245,7 +12250,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
